--- a/listing.xlsx
+++ b/listing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmeng/foodgrab/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmeng/foodgrab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA43A42-4588-2E45-B90F-67A4759D977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C3B32B-212A-7446-BC72-8EE415BEACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="7260" windowWidth="27640" windowHeight="16940" xr2:uid="{1AC82416-6878-0B4B-B533-CF0AADFFACD7}"/>
+    <workbookView xWindow="10760" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{1AC82416-6878-0B4B-B533-CF0AADFFACD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
-    <t>listing_id</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Potong Pasir</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -541,14 +541,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,416 +559,416 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.99</v>
       </c>
     </row>
   </sheetData>
